--- a/E-Com/ecom.xlsx
+++ b/E-Com/ecom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50759552-8615-4E9F-BA1D-84865D43F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD21C58-D850-4953-8311-5C613594DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1140" windowWidth="20235" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Amazon</t>
   </si>
@@ -302,8 +302,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,15 +587,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,7 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -648,22 +650,22 @@
         <v>1079120</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -671,162 +673,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -834,7 +839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -842,12 +847,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -855,7 +860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>56</v>
       </c>
@@ -863,7 +868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>58</v>
       </c>
@@ -871,7 +876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -879,22 +884,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -902,7 +907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>67</v>
       </c>
@@ -913,8 +918,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{387C7AAB-ADCE-40D5-862D-3DC601AFD05A}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{0CEF68FA-B3D5-4A42-87D3-05E0C6D90514}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>